--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FBA563-1A86-433A-A75E-99761769A56D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B893C493-E831-4B26-8972-B3710045E28C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,57 +390,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -663,8 +663,8 @@
   </sheetPr>
   <dimension ref="A1:BF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -696,855 +696,855 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="2" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="2" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="2" t="s">
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="2" t="s">
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="2" t="s">
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="2" t="s">
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="2" t="s">
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="2" t="s">
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="2" t="s">
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="2" t="s">
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="2" t="s">
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="4"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="18"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="4">
         <v>15</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="4">
         <v>22</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <v>29</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="4">
         <v>5</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <v>12</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="4">
         <v>19</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="4">
         <v>26</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="4">
         <v>3</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="4">
         <v>10</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="4">
         <v>17</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="4">
         <v>24</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="4">
         <v>31</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="4">
         <v>7</v>
       </c>
-      <c r="Q2" s="7">
-        <v>14</v>
-      </c>
-      <c r="R2" s="7">
+      <c r="Q2" s="4">
+        <v>14</v>
+      </c>
+      <c r="R2" s="4">
         <v>21</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="4">
         <v>28</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="4">
         <v>4</v>
       </c>
-      <c r="U2" s="7">
-        <v>11</v>
-      </c>
-      <c r="V2" s="7">
+      <c r="U2" s="4">
+        <v>11</v>
+      </c>
+      <c r="V2" s="4">
         <v>18</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="4">
         <v>25</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="4">
         <v>2</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="4">
         <v>9</v>
       </c>
-      <c r="Z2" s="7">
+      <c r="Z2" s="4">
         <v>16</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AA2" s="4">
         <v>23</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB2" s="4">
         <v>30</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AC2" s="4">
         <v>6</v>
       </c>
-      <c r="AD2" s="7">
+      <c r="AD2" s="4">
         <v>13</v>
       </c>
-      <c r="AE2" s="7">
+      <c r="AE2" s="4">
         <v>20</v>
       </c>
-      <c r="AF2" s="7">
+      <c r="AF2" s="4">
         <v>27</v>
       </c>
-      <c r="AG2" s="7">
+      <c r="AG2" s="4">
         <v>4</v>
       </c>
-      <c r="AH2" s="7">
-        <v>11</v>
-      </c>
-      <c r="AI2" s="7">
+      <c r="AH2" s="4">
+        <v>11</v>
+      </c>
+      <c r="AI2" s="4">
         <v>18</v>
       </c>
-      <c r="AJ2" s="7">
+      <c r="AJ2" s="4">
         <v>25</v>
       </c>
-      <c r="AK2" s="8">
+      <c r="AK2" s="5">
         <v>1</v>
       </c>
-      <c r="AL2" s="7">
+      <c r="AL2" s="4">
         <v>8</v>
       </c>
-      <c r="AM2" s="7">
+      <c r="AM2" s="4">
         <v>15</v>
       </c>
-      <c r="AN2" s="7">
+      <c r="AN2" s="4">
         <v>22</v>
       </c>
-      <c r="AO2" s="7">
+      <c r="AO2" s="4">
         <v>29</v>
       </c>
-      <c r="AP2" s="7">
+      <c r="AP2" s="4">
         <v>5</v>
       </c>
-      <c r="AQ2" s="7">
+      <c r="AQ2" s="4">
         <v>12</v>
       </c>
-      <c r="AR2" s="7">
+      <c r="AR2" s="4">
         <v>19</v>
       </c>
-      <c r="AS2" s="7">
+      <c r="AS2" s="4">
         <v>26</v>
       </c>
-      <c r="AT2" s="7">
+      <c r="AT2" s="4">
         <v>4</v>
       </c>
-      <c r="AU2" s="7">
-        <v>11</v>
-      </c>
-      <c r="AV2" s="7">
+      <c r="AU2" s="4">
+        <v>11</v>
+      </c>
+      <c r="AV2" s="4">
         <v>18</v>
       </c>
-      <c r="AW2" s="7">
+      <c r="AW2" s="4">
         <v>25</v>
       </c>
-      <c r="AX2" s="7">
+      <c r="AX2" s="4">
         <v>1</v>
       </c>
-      <c r="AY2" s="7">
+      <c r="AY2" s="4">
         <v>8</v>
       </c>
-      <c r="AZ2" s="7">
+      <c r="AZ2" s="4">
         <v>15</v>
       </c>
-      <c r="BA2" s="7">
+      <c r="BA2" s="4">
         <v>22</v>
       </c>
-      <c r="BB2" s="7">
+      <c r="BB2" s="4">
         <v>29</v>
       </c>
-      <c r="BC2" s="7">
+      <c r="BC2" s="4">
         <v>6</v>
       </c>
-      <c r="BD2" s="9">
+      <c r="BD2" s="6">
         <v>13</v>
       </c>
-      <c r="BE2" s="9">
+      <c r="BE2" s="6">
         <v>20</v>
       </c>
-      <c r="BF2" s="9">
+      <c r="BF2" s="6">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="D3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB3" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK3" s="15" t="s">
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AX3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="BC3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="BD3" s="16" t="s">
+      <c r="AL3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="22" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="U4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="W4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" s="22" t="s">
+      <c r="Y4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="22" t="s">
+      <c r="Z4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" s="22" t="s">
+      <c r="AA4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="22" t="s">
+      <c r="AB4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="23" t="s">
+      <c r="AC4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AD4" s="23" t="s">
+      <c r="AD4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="23" t="s">
+      <c r="AE4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="23" t="s">
+      <c r="AF4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG4" s="23" t="s">
+      <c r="AG4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AH4" s="23" t="s">
+      <c r="AH4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AI4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AX4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="BC4" s="16" t="s">
+      <c r="AI4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BD4" s="16" t="s">
+      <c r="BD4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC5" s="23" t="s">
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="23" t="s">
+      <c r="AD5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AE5" s="23" t="s">
+      <c r="AE5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AF5" s="23" t="s">
+      <c r="AF5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG5" s="23" t="s">
+      <c r="AG5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AH5" s="23" t="s">
+      <c r="AH5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AX5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="BC5" s="16" t="s">
+      <c r="AI5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="9" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="32" t="s">
+      <c r="Z6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="17"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="10"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
     </row>
     <row r="12" spans="1:58" ht="18" x14ac:dyDescent="0.35">
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="29"/>
-      <c r="AS12" s="29"/>
-      <c r="AT12" s="29"/>
-      <c r="AU12" s="29"/>
-      <c r="AV12" s="29"/>
-      <c r="AW12" s="29"/>
-      <c r="AX12" s="29"/>
-      <c r="AY12" s="29"/>
-      <c r="AZ12" s="29"/>
-      <c r="BA12" s="29"/>
-      <c r="BB12" s="29"/>
-      <c r="BC12" s="29"/>
-      <c r="BD12" s="29"/>
-      <c r="BE12" s="29"/>
-      <c r="BF12" s="29"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="14"/>
+      <c r="BF12" s="14"/>
     </row>
     <row r="48" spans="1:58" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="29"/>
-      <c r="AB48" s="29"/>
-      <c r="AC48" s="29"/>
-      <c r="AD48" s="29"/>
-      <c r="AE48" s="29"/>
-      <c r="AF48" s="29"/>
-      <c r="AG48" s="29"/>
-      <c r="AH48" s="29"/>
-      <c r="AI48" s="29"/>
-      <c r="AJ48" s="29"/>
-      <c r="AK48" s="29"/>
-      <c r="AL48" s="29"/>
-      <c r="AM48" s="29"/>
-      <c r="AN48" s="29"/>
-      <c r="AO48" s="29"/>
-      <c r="AP48" s="29"/>
-      <c r="AQ48" s="29"/>
-      <c r="AR48" s="29"/>
-      <c r="AS48" s="29"/>
-      <c r="AT48" s="29"/>
-      <c r="AU48" s="29"/>
-      <c r="AV48" s="29"/>
-      <c r="AW48" s="29"/>
-      <c r="AX48" s="29"/>
-      <c r="AY48" s="29"/>
-      <c r="AZ48" s="29"/>
-      <c r="BA48" s="29"/>
-      <c r="BB48" s="29"/>
-      <c r="BC48" s="29"/>
-      <c r="BD48" s="29"/>
-      <c r="BE48" s="29"/>
-      <c r="BF48" s="29"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="14"/>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="14"/>
+      <c r="AI48" s="14"/>
+      <c r="AJ48" s="14"/>
+      <c r="AK48" s="14"/>
+      <c r="AL48" s="14"/>
+      <c r="AM48" s="14"/>
+      <c r="AN48" s="14"/>
+      <c r="AO48" s="14"/>
+      <c r="AP48" s="14"/>
+      <c r="AQ48" s="14"/>
+      <c r="AR48" s="14"/>
+      <c r="AS48" s="14"/>
+      <c r="AT48" s="14"/>
+      <c r="AU48" s="14"/>
+      <c r="AV48" s="14"/>
+      <c r="AW48" s="14"/>
+      <c r="AX48" s="14"/>
+      <c r="AY48" s="14"/>
+      <c r="AZ48" s="14"/>
+      <c r="BA48" s="14"/>
+      <c r="BB48" s="14"/>
+      <c r="BC48" s="14"/>
+      <c r="BD48" s="14"/>
+      <c r="BE48" s="14"/>
+      <c r="BF48" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="N3:P5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="Z6:AB7"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="N3:P5"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:O1"/>
     <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B893C493-E831-4B26-8972-B3710045E28C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162F36A8-B03A-4DE3-911D-9A8779B4818B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,17 +414,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,6 +430,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -663,8 +663,8 @@
   </sheetPr>
   <dimension ref="A1:BF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -696,87 +696,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="16" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="16" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="16" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="16" t="s">
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="16" t="s">
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="16" t="s">
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="16" t="s">
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="16" t="s">
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="16" t="s">
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="16" t="s">
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="16" t="s">
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="18"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="30"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -983,11 +983,11 @@
       <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18"/>
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1048,7 +1048,7 @@
       <c r="AJ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="30" t="s">
+      <c r="AK3" s="25" t="s">
         <v>12</v>
       </c>
       <c r="AL3" s="8" t="s">
@@ -1145,9 +1145,9 @@
       <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="26"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1208,7 +1208,7 @@
       <c r="AJ4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="31"/>
+      <c r="AK4" s="26"/>
       <c r="AL4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1301,9 +1301,9 @@
       <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="24"/>
       <c r="Q5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="AJ5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="32"/>
+      <c r="AK5" s="27"/>
       <c r="AL5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1427,19 +1427,19 @@
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="19" t="s">
+      <c r="Z6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="10"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
     </row>
     <row r="12" spans="1:58" ht="18" x14ac:dyDescent="0.35">
       <c r="AI12" s="14"/>
@@ -1529,6 +1529,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="Z6:AB7"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AX1:BB1"/>
     <mergeCell ref="N3:P5"/>
     <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="D1:F1"/>
@@ -1539,12 +1545,6 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="Z6:AB7"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AX1:BB1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162F36A8-B03A-4DE3-911D-9A8779B4818B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B16DD5-9940-4F9B-A001-7BAA3E3B5123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="27">
   <si>
     <t>ноябрь</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Экзамен</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Евгений / Роман</t>
   </si>
 </sst>
 </file>
@@ -146,7 +152,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +213,18 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -389,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -414,6 +432,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,17 +459,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -663,8 +688,8 @@
   </sheetPr>
   <dimension ref="A1:BF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -678,7 +703,9 @@
     <col min="12" max="13" width="14.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="4.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="28" width="4.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="24" width="4.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="1" customWidth="1"/>
+    <col min="26" max="28" width="4.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="34" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="4.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -696,87 +723,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="28" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="28" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="28" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="28" t="s">
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="28" t="s">
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="28" t="s">
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="28" t="s">
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="28" t="s">
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="28" t="s">
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="28" t="s">
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="28" t="s">
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="28" t="s">
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="30"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="18"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -983,11 +1010,11 @@
       <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="18"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1012,16 +1039,16 @@
       <c r="X3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB3" s="15" t="s">
+      <c r="Y3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="35" t="s">
         <v>11</v>
       </c>
       <c r="AC3" s="8" t="s">
@@ -1048,7 +1075,7 @@
       <c r="AJ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="25" t="s">
+      <c r="AK3" s="30" t="s">
         <v>12</v>
       </c>
       <c r="AL3" s="8" t="s">
@@ -1145,9 +1172,9 @@
       <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
       <c r="Q4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1208,7 +1235,7 @@
       <c r="AJ4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="26"/>
+      <c r="AK4" s="31"/>
       <c r="AL4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1301,9 +1328,9 @@
       <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
       <c r="Q5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1328,16 +1355,16 @@
       <c r="X5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB5" s="15" t="s">
+      <c r="Y5" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="35" t="s">
         <v>11</v>
       </c>
       <c r="AC5" s="13" t="s">
@@ -1364,7 +1391,7 @@
       <c r="AJ5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="27"/>
+      <c r="AK5" s="32"/>
       <c r="AL5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1427,19 +1454,26 @@
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="31" t="s">
+      <c r="X6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="10"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
     </row>
     <row r="12" spans="1:58" ht="18" x14ac:dyDescent="0.35">
       <c r="AI12" s="14"/>
@@ -1528,13 +1562,8 @@
       <c r="BF48" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="Z6:AB7"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AX1:BB1"/>
+  <mergeCells count="17">
+    <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="N3:P5"/>
     <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="D1:F1"/>
@@ -1545,6 +1574,12 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="Z6:AB7"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AX1:BB1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B16DD5-9940-4F9B-A001-7BAA3E3B5123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66A6B5A-C20E-4AC0-8EE3-6625E91D78EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="26">
   <si>
     <t>ноябрь</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Экзамен</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Евгений / Роман</t>
@@ -432,11 +429,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,13 +452,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -688,23 +685,23 @@
   </sheetPr>
   <dimension ref="A1:BF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="29.44140625" style="1"/>
     <col min="3" max="3" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="4.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="24" width="4.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="4.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="34" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="4.109375" style="1" bestFit="1" customWidth="1"/>
@@ -717,93 +714,93 @@
     <col min="47" max="49" width="4.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="51" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="54" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="58" width="4.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="59" max="16384" width="29.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="16" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="16" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="16" t="s">
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="16" t="s">
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="16" t="s">
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="16" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="16" t="s">
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="16" t="s">
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="16" t="s">
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="16" t="s">
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="16" t="s">
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="32"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="18"/>
+      <c r="BD1" s="32"/>
+      <c r="BE1" s="32"/>
+      <c r="BF1" s="33"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1010,11 +1007,11 @@
       <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21"/>
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1042,13 +1039,13 @@
       <c r="Y3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB3" s="35" t="s">
+      <c r="Z3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="AC3" s="8" t="s">
@@ -1075,7 +1072,7 @@
       <c r="AJ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="30" t="s">
+      <c r="AK3" s="28" t="s">
         <v>12</v>
       </c>
       <c r="AL3" s="8" t="s">
@@ -1172,9 +1169,9 @@
       <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="26"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24"/>
       <c r="Q4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1235,7 +1232,7 @@
       <c r="AJ4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="31"/>
+      <c r="AK4" s="29"/>
       <c r="AL4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1328,9 +1325,9 @@
       <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="27"/>
       <c r="Q5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1355,16 +1352,16 @@
       <c r="X5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA5" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB5" s="35" t="s">
+      <c r="Y5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="AC5" s="13" t="s">
@@ -1391,7 +1388,7 @@
       <c r="AJ5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="32"/>
+      <c r="AK5" s="30"/>
       <c r="AL5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1454,26 +1451,34 @@
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z6" s="33" t="s">
+      <c r="Z6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="10"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
+      <c r="X7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="X8" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:58" ht="18" x14ac:dyDescent="0.35">
       <c r="AI12" s="14"/>
@@ -1563,6 +1568,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="Z6:AB7"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AX1:BB1"/>
     <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="N3:P5"/>
     <mergeCell ref="AK3:AK5"/>
@@ -1574,12 +1585,6 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="Z6:AB7"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AX1:BB1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66A6B5A-C20E-4AC0-8EE3-6625E91D78EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBA767D-B423-4094-9E68-288F56911F65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="33">
   <si>
     <t>ноябрь</t>
   </si>
@@ -97,7 +97,38 @@
     <t>Экзамен</t>
   </si>
   <si>
-    <t>Евгений / Роман</t>
+    <t>11.10
+Евгений / Роман</t>
+  </si>
+  <si>
+    <t>16.10.2023
+Евгений / Роман</t>
+  </si>
+  <si>
+    <t>18.10.2023
+Нурдаулет/Артём</t>
+  </si>
+  <si>
+    <t>23.10.2023
+Игорь / Есенжан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.10.2023
+Бекет/
+Аскар
+</t>
+  </si>
+  <si>
+    <t>01.01.2023
+Байжан/
+Мансур</t>
+  </si>
+  <si>
+    <t>25.10.2023
+Мейрам</t>
+  </si>
+  <si>
+    <t>Тестовый</t>
   </si>
 </sst>
 </file>
@@ -223,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -397,6 +428,21 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,12 +476,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,16 +497,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="16" fontId="1" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,8 +729,8 @@
   </sheetPr>
   <dimension ref="A1:BF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -702,7 +746,9 @@
     <col min="16" max="16" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="24" width="4.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="4.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.21875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.21875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18" style="1" customWidth="1"/>
     <col min="29" max="34" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="4.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -720,87 +766,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="31" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="31" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="31" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="31" t="s">
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="31" t="s">
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="31" t="s">
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="31" t="s">
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="31" t="s">
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="31" t="s">
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="31" t="s">
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="31" t="s">
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="31" t="s">
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="33"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="19"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1007,11 +1053,11 @@
       <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1036,7 +1082,7 @@
       <c r="X3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Z3" s="16" t="s">
@@ -1072,7 +1118,7 @@
       <c r="AJ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="28" t="s">
+      <c r="AK3" s="29" t="s">
         <v>12</v>
       </c>
       <c r="AL3" s="8" t="s">
@@ -1169,9 +1215,9 @@
       <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="24"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
       <c r="Q4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1232,7 +1278,7 @@
       <c r="AJ4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="29"/>
+      <c r="AK4" s="30"/>
       <c r="AL4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1325,9 +1371,9 @@
       <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="28"/>
       <c r="Q5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1352,7 +1398,7 @@
       <c r="X5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="Z5" s="16" t="s">
@@ -1388,7 +1434,7 @@
       <c r="AJ5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="30"/>
+      <c r="AK5" s="31"/>
       <c r="AL5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1451,33 +1497,42 @@
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z6" s="34" t="s">
+      <c r="Y6" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="10"/>
-      <c r="X7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
+      <c r="Y7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA7" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB7" s="34" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="X8" s="7" t="s">
-        <v>11</v>
+    <row r="8" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB8" s="34" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="18" x14ac:dyDescent="0.35">
@@ -1567,14 +1622,7 @@
       <c r="BF48" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="Z6:AB7"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="Y6:Y7"/>
+  <mergeCells count="15">
     <mergeCell ref="N3:P5"/>
     <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="D1:F1"/>
@@ -1585,6 +1633,11 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AX1:BB1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBA767D-B423-4094-9E68-288F56911F65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EFFF96-700D-4EC5-8BD6-101A53313C5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,11 +476,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,16 +502,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -730,7 +730,7 @@
   <dimension ref="A1:BF48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -766,87 +766,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="17" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="17" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="17" t="s">
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="17" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="17" t="s">
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="17" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="17" t="s">
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="17" t="s">
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="17" t="s">
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="17" t="s">
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="18"/>
-      <c r="BB1" s="19"/>
-      <c r="BC1" s="17" t="s">
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="19"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="35"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1053,11 +1053,11 @@
       <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="AJ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="29" t="s">
+      <c r="AK3" s="30" t="s">
         <v>12</v>
       </c>
       <c r="AL3" s="8" t="s">
@@ -1215,9 +1215,9 @@
       <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="25"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
       <c r="Q4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="AJ4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="30"/>
+      <c r="AK4" s="31"/>
       <c r="AL4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1371,9 +1371,9 @@
       <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="28"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
       <c r="Q5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +1434,7 @@
       <c r="AJ5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="31"/>
+      <c r="AK5" s="32"/>
       <c r="AL5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1497,41 +1497,41 @@
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y6" s="33" t="s">
+      <c r="Y6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="32" t="s">
+      <c r="Z6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
     </row>
     <row r="7" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="10"/>
-      <c r="Y7" s="33" t="s">
+      <c r="Y7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Z7" s="34" t="s">
+      <c r="Z7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AA7" s="34" t="s">
+      <c r="AA7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AB7" s="34" t="s">
+      <c r="AB7" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="34" t="s">
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AA8" s="34" t="s">
+      <c r="AA8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AB8" s="34" t="s">
+      <c r="AB8" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1623,6 +1623,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AX1:BB1"/>
     <mergeCell ref="N3:P5"/>
     <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="D1:F1"/>
@@ -1633,11 +1638,6 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AX1:BB1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EFFF96-700D-4EC5-8BD6-101A53313C5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E2C1BC-916D-41BA-8953-3FA56766A54F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,10 +105,6 @@
 Евгений / Роман</t>
   </si>
   <si>
-    <t>18.10.2023
-Нурдаулет/Артём</t>
-  </si>
-  <si>
     <t>23.10.2023
 Игорь / Есенжан</t>
   </si>
@@ -124,11 +120,15 @@
 Мансур</t>
   </si>
   <si>
+    <t>Тестовый</t>
+  </si>
+  <si>
+    <t>21.10.2023
+Артём</t>
+  </si>
+  <si>
     <t>25.10.2023
-Мейрам</t>
-  </si>
-  <si>
-    <t>Тестовый</t>
+Нурдаулет/Мейрам</t>
   </si>
 </sst>
 </file>
@@ -486,6 +486,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,11 +507,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -729,8 +729,8 @@
   </sheetPr>
   <dimension ref="A1:BF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -766,87 +766,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="33" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="33" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="33" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="33" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="33" t="s">
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="33" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="33" t="s">
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="33" t="s">
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="33" t="s">
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="33" t="s">
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="33" t="s">
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="35"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="23"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1053,11 +1053,11 @@
       <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="AJ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="30" t="s">
+      <c r="AK3" s="33" t="s">
         <v>12</v>
       </c>
       <c r="AL3" s="8" t="s">
@@ -1215,9 +1215,9 @@
       <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
       <c r="Q4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="AJ4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="31"/>
+      <c r="AK4" s="34"/>
       <c r="AL4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1371,9 +1371,9 @@
       <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="32"/>
       <c r="Q5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +1434,7 @@
       <c r="AJ5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="32"/>
+      <c r="AK5" s="35"/>
       <c r="AL5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>23</v>
       </c>
       <c r="Y6" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z6" s="17" t="s">
         <v>24</v>
@@ -1517,22 +1517,25 @@
         <v>26</v>
       </c>
       <c r="AA7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="AB7" s="19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
       <c r="Y8" s="20"/>
-      <c r="Z8" s="19" t="s">
-        <v>27</v>
-      </c>
+      <c r="Z8" s="19"/>
       <c r="AA8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="Z9" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="AB8" s="19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="18" x14ac:dyDescent="0.35">
@@ -1623,11 +1626,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AX1:BB1"/>
     <mergeCell ref="N3:P5"/>
     <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="D1:F1"/>
@@ -1638,6 +1636,11 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AX1:BB1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E2C1BC-916D-41BA-8953-3FA56766A54F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A760FB-3270-473C-9CF5-109E3DFAACB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="34">
   <si>
     <t>ноябрь</t>
   </si>
@@ -103,16 +103,6 @@
   <si>
     <t>16.10.2023
 Евгений / Роман</t>
-  </si>
-  <si>
-    <t>23.10.2023
-Игорь / Есенжан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.10.2023
-Бекет/
-Аскар
-</t>
   </si>
   <si>
     <t>01.01.2023
@@ -127,8 +117,20 @@
 Артём</t>
   </si>
   <si>
-    <t>25.10.2023
+    <t xml:space="preserve">30.10.2023
+Игорь / Бекет
+</t>
+  </si>
+  <si>
+    <t>06.11.2023
+Аскар / Есенжан</t>
+  </si>
+  <si>
+    <t>08.11.2023
 Нурдаулет/Мейрам</t>
+  </si>
+  <si>
+    <t>Ы</t>
   </si>
 </sst>
 </file>
@@ -180,7 +182,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +255,12 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -450,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -476,7 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -486,11 +493,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,6 +509,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -729,8 +742,8 @@
   </sheetPr>
   <dimension ref="A1:BF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -749,7 +762,8 @@
     <col min="26" max="26" width="15.21875" style="1" customWidth="1"/>
     <col min="27" max="27" width="16.21875" style="1" customWidth="1"/>
     <col min="28" max="28" width="18" style="1" customWidth="1"/>
-    <col min="29" max="34" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.109375" style="1" customWidth="1"/>
+    <col min="30" max="34" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="4.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -766,87 +780,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="21" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="21" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="21" t="s">
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="21" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="21" t="s">
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="21" t="s">
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="21" t="s">
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="21" t="s">
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="21" t="s">
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="21" t="s">
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="21" t="s">
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="22"/>
-      <c r="BE1" s="22"/>
-      <c r="BF1" s="23"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="34"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1053,11 +1067,11 @@
       <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1118,7 +1132,7 @@
       <c r="AJ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="33" t="s">
+      <c r="AK3" s="29" t="s">
         <v>12</v>
       </c>
       <c r="AL3" s="8" t="s">
@@ -1215,9 +1229,9 @@
       <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="29"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
       <c r="Q4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1278,7 +1292,7 @@
       <c r="AJ4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="34"/>
+      <c r="AK4" s="30"/>
       <c r="AL4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1371,9 +1385,9 @@
       <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="32"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="28"/>
       <c r="Q5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +1448,7 @@
       <c r="AJ5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="35"/>
+      <c r="AK5" s="31"/>
       <c r="AL5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1497,45 +1511,45 @@
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="17" t="s">
+      <c r="Y6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
     </row>
-    <row r="7" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="10"/>
-      <c r="Y7" s="18" t="s">
+      <c r="Y7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Z7" s="19" t="s">
+      <c r="Z7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="AA7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB7" s="19" t="s">
-        <v>28</v>
+      <c r="AB7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC7" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19" t="s">
+      <c r="Y8" s="19"/>
+      <c r="AB8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC8" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="AB8" s="19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="Z9" s="19" t="s">
-        <v>31</v>
+      <c r="Z9" s="35" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="18" x14ac:dyDescent="0.35">
@@ -1563,6 +1577,11 @@
       <c r="BD12" s="14"/>
       <c r="BE12" s="14"/>
       <c r="BF12" s="14"/>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="Y13" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="48" spans="1:58" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
@@ -1625,7 +1644,13 @@
       <c r="BF48" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AX1:BB1"/>
     <mergeCell ref="N3:P5"/>
     <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="D1:F1"/>
@@ -1636,11 +1661,6 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AX1:BB1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A760FB-3270-473C-9CF5-109E3DFAACB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79E4B1F-C49B-4362-A57C-368C34F8666E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,11 +117,6 @@
 Артём</t>
   </si>
   <si>
-    <t xml:space="preserve">30.10.2023
-Игорь / Бекет
-</t>
-  </si>
-  <si>
     <t>06.11.2023
 Аскар / Есенжан</t>
   </si>
@@ -130,7 +125,14 @@
 Нурдаулет/Мейрам</t>
   </si>
   <si>
-    <t>Ы</t>
+    <t xml:space="preserve">13.11.2023
+Бекет
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.10.2023
+Игорь
+</t>
   </si>
 </sst>
 </file>
@@ -493,6 +495,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,17 +522,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -743,7 +745,7 @@
   <dimension ref="A1:BF48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -763,7 +765,8 @@
     <col min="27" max="27" width="16.21875" style="1" customWidth="1"/>
     <col min="28" max="28" width="18" style="1" customWidth="1"/>
     <col min="29" max="29" width="15.109375" style="1" customWidth="1"/>
-    <col min="30" max="34" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.88671875" style="1" customWidth="1"/>
+    <col min="31" max="34" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="4.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -780,87 +783,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="32" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="32" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="32" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="32" t="s">
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="32" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="32" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="32" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="32" t="s">
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="32" t="s">
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="32" t="s">
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="32" t="s">
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="32" t="s">
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="34"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="24"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1067,11 +1070,11 @@
       <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="27"/>
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1132,7 +1135,7 @@
       <c r="AJ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="29" t="s">
+      <c r="AK3" s="34" t="s">
         <v>12</v>
       </c>
       <c r="AL3" s="8" t="s">
@@ -1229,9 +1232,9 @@
       <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="25"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
       <c r="Q4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1292,7 +1295,7 @@
       <c r="AJ4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="30"/>
+      <c r="AK4" s="35"/>
       <c r="AL4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1385,9 +1388,9 @@
       <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="28"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1448,7 +1451,7 @@
       <c r="AJ5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="31"/>
+      <c r="AK5" s="36"/>
       <c r="AL5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1514,12 +1517,13 @@
       <c r="Y6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Z6" s="36" t="s">
+      <c r="Z6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
     </row>
     <row r="7" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -1528,14 +1532,17 @@
       <c r="Y7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Z7" s="35" t="s">
+      <c r="Z7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AB7" s="18" t="s">
+      <c r="AB7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AC7" s="18" t="s">
-        <v>31</v>
+      <c r="AD7" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
@@ -1544,11 +1551,11 @@
         <v>27</v>
       </c>
       <c r="AC8" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="Z9" s="35" t="s">
+      <c r="Z9" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1577,11 +1584,6 @@
       <c r="BD12" s="14"/>
       <c r="BE12" s="14"/>
       <c r="BF12" s="14"/>
-    </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="Y13" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="48" spans="1:58" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
@@ -1645,12 +1647,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AX1:BB1"/>
     <mergeCell ref="N3:P5"/>
     <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="D1:F1"/>
@@ -1661,6 +1657,12 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="Z6:AD6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79E4B1F-C49B-4362-A57C-368C34F8666E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB30BB3-7B3C-44A5-9201-DC5702193863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,14 +498,6 @@
     <xf numFmtId="16" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,6 +514,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -745,7 +745,7 @@
   <dimension ref="A1:BF48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -783,87 +783,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="22" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="22" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="22" t="s">
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="22" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="22" t="s">
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="22" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="22" t="s">
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="22" t="s">
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="22" t="s">
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="22" t="s">
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="22" t="s">
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="24"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="35"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1070,11 +1070,11 @@
       <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="AJ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="34" t="s">
+      <c r="AK3" s="30" t="s">
         <v>12</v>
       </c>
       <c r="AL3" s="8" t="s">
@@ -1232,9 +1232,9 @@
       <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
       <c r="Q4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1295,7 +1295,7 @@
       <c r="AJ4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="35"/>
+      <c r="AK4" s="31"/>
       <c r="AL4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1388,9 +1388,9 @@
       <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
       <c r="Q5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="AJ5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="36"/>
+      <c r="AK5" s="32"/>
       <c r="AL5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1517,13 +1517,13 @@
       <c r="Y6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="Z6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
     </row>
     <row r="7" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="8" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
       <c r="Y8" s="19"/>
-      <c r="AB8" s="18" t="s">
+      <c r="AB8" s="20" t="s">
         <v>27</v>
       </c>
       <c r="AC8" s="18" t="s">
@@ -1647,6 +1647,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AX1:BB1"/>
     <mergeCell ref="N3:P5"/>
     <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="D1:F1"/>
@@ -1657,12 +1663,6 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="Z6:AD6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB30BB3-7B3C-44A5-9201-DC5702193863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D41FFC7-ECD3-4BEB-B417-A1887B1142B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="33">
   <si>
     <t>ноябрь</t>
   </si>
@@ -105,34 +105,30 @@
 Евгений / Роман</t>
   </si>
   <si>
-    <t>01.01.2023
-Байжан/
-Мансур</t>
-  </si>
-  <si>
     <t>Тестовый</t>
   </si>
   <si>
     <t>21.10.2023
 Артём</t>
-  </si>
-  <si>
-    <t>06.11.2023
-Аскар / Есенжан</t>
-  </si>
-  <si>
-    <t>08.11.2023
-Нурдаулет/Мейрам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.11.2023
-Бекет
-</t>
   </si>
   <si>
     <t xml:space="preserve">30.10.2023
 Игорь
 </t>
+  </si>
+  <si>
+    <t>01.01.2023
+Байжан /
+Мансур</t>
+  </si>
+  <si>
+    <t>09.12.2023
+Мейрам /
+Аскар / Бекет</t>
+  </si>
+  <si>
+    <t>02.12.2023
+Нурдаулет / Есенжан</t>
   </si>
 </sst>
 </file>
@@ -498,6 +494,14 @@
     <xf numFmtId="16" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,14 +518,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -745,7 +741,7 @@
   <dimension ref="A1:BF48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -783,87 +779,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="33" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="33" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="33" t="s">
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="33" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="33" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="33" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="33" t="s">
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="33" t="s">
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="33" t="s">
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="33" t="s">
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="33" t="s">
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="35"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="24"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1070,11 +1066,11 @@
       <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="27"/>
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1135,7 +1131,7 @@
       <c r="AJ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="30" t="s">
+      <c r="AK3" s="34" t="s">
         <v>12</v>
       </c>
       <c r="AL3" s="8" t="s">
@@ -1232,9 +1228,9 @@
       <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="26"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
       <c r="Q4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1295,7 +1291,7 @@
       <c r="AJ4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="31"/>
+      <c r="AK4" s="35"/>
       <c r="AL4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1388,9 +1384,9 @@
       <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1451,7 +1447,7 @@
       <c r="AJ5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="32"/>
+      <c r="AK5" s="36"/>
       <c r="AL5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1515,15 +1511,14 @@
         <v>23</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
     </row>
     <row r="7" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -1535,28 +1530,23 @@
       <c r="Z7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AB7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD7" s="18" t="s">
+      <c r="AA7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
       <c r="Y8" s="19"/>
-      <c r="AB8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC8" s="18" t="s">
+      <c r="Z8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB8" s="18" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="Z9" s="20" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="18" x14ac:dyDescent="0.35">
@@ -1647,12 +1637,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AX1:BB1"/>
     <mergeCell ref="N3:P5"/>
     <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="D1:F1"/>
@@ -1663,6 +1647,12 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AX1:BB1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D41FFC7-ECD3-4BEB-B417-A1887B1142B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F96C05F-3228-4017-9F53-B6B8CEBAE4A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="32">
   <si>
     <t>ноябрь</t>
   </si>
@@ -123,12 +123,8 @@
   </si>
   <si>
     <t>09.12.2023
-Мейрам /
-Аскар / Бекет</t>
-  </si>
-  <si>
-    <t>02.12.2023
-Нурдаулет / Есенжан</t>
+Нурдаулет / Мейрам /
+Бекет</t>
   </si>
 </sst>
 </file>
@@ -494,14 +490,6 @@
     <xf numFmtId="16" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,6 +506,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -741,7 +737,7 @@
   <dimension ref="A1:BF48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -779,87 +775,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="22" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="22" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="22" t="s">
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="22" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="22" t="s">
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="22" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="22" t="s">
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="22" t="s">
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="22" t="s">
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="22" t="s">
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="22" t="s">
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="24"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="35"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1066,11 +1062,11 @@
       <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1127,7 @@
       <c r="AJ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="34" t="s">
+      <c r="AK3" s="30" t="s">
         <v>12</v>
       </c>
       <c r="AL3" s="8" t="s">
@@ -1228,9 +1224,9 @@
       <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
       <c r="Q4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1291,7 +1287,7 @@
       <c r="AJ4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="35"/>
+      <c r="AK4" s="31"/>
       <c r="AL4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1384,9 +1380,9 @@
       <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
       <c r="Q5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1447,7 +1443,7 @@
       <c r="AJ5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="36"/>
+      <c r="AK5" s="32"/>
       <c r="AL5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1513,14 +1509,14 @@
       <c r="Y6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="Z6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
     </row>
-    <row r="7" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="10"/>
@@ -1534,7 +1530,7 @@
         <v>29</v>
       </c>
       <c r="AB7" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
@@ -1544,9 +1540,6 @@
       </c>
       <c r="AA8" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="AB8" s="18" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="18" x14ac:dyDescent="0.35">
@@ -1637,6 +1630,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AX1:BB1"/>
     <mergeCell ref="N3:P5"/>
     <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="D1:F1"/>
@@ -1647,12 +1646,6 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AX1:BB1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F96C05F-3228-4017-9F53-B6B8CEBAE4A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E20010E-EE93-4615-8120-266CE254A23B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,6 +490,14 @@
     <xf numFmtId="16" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,14 +514,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -737,7 +737,7 @@
   <dimension ref="A1:BF48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -775,87 +775,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="33" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="33" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="33" t="s">
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="33" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="33" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="33" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="33" t="s">
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="33" t="s">
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="33" t="s">
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="33" t="s">
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="33" t="s">
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="35"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="24"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1062,11 +1062,11 @@
       <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="27"/>
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="AJ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="30" t="s">
+      <c r="AK3" s="34" t="s">
         <v>12</v>
       </c>
       <c r="AL3" s="8" t="s">
@@ -1224,9 +1224,9 @@
       <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="26"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
       <c r="Q4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="AJ4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="31"/>
+      <c r="AK4" s="35"/>
       <c r="AL4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1380,9 +1380,9 @@
       <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="AJ5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="32"/>
+      <c r="AK5" s="36"/>
       <c r="AL5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1509,12 +1509,12 @@
       <c r="Y6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="36" t="s">
+      <c r="Z6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
     </row>
     <row r="7" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -1630,12 +1630,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AX1:BB1"/>
     <mergeCell ref="N3:P5"/>
     <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="D1:F1"/>
@@ -1646,6 +1640,12 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AX1:BB1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E20010E-EE93-4615-8120-266CE254A23B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11590A4-9006-414D-835C-C2D2AA56C866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,14 +490,6 @@
     <xf numFmtId="16" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,6 +506,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -736,8 +736,8 @@
   </sheetPr>
   <dimension ref="A1:BF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -775,87 +775,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="22" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="22" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="22" t="s">
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="22" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="22" t="s">
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="22" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="22" t="s">
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="22" t="s">
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="22" t="s">
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="22" t="s">
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="22" t="s">
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="24"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="35"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1062,11 +1062,11 @@
       <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1103,17 +1103,17 @@
       <c r="AB3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>14</v>
+      <c r="AC3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="AG3" s="8" t="s">
         <v>14</v>
@@ -1127,7 +1127,7 @@
       <c r="AJ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="34" t="s">
+      <c r="AK3" s="30" t="s">
         <v>12</v>
       </c>
       <c r="AL3" s="8" t="s">
@@ -1224,9 +1224,9 @@
       <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
       <c r="Q4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1275,11 +1275,11 @@
       <c r="AF4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH4" s="13" t="s">
-        <v>13</v>
+      <c r="AG4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="AI4" s="8" t="s">
         <v>14</v>
@@ -1287,7 +1287,7 @@
       <c r="AJ4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="35"/>
+      <c r="AK4" s="31"/>
       <c r="AL4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1380,9 +1380,9 @@
       <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
       <c r="Q5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1431,11 +1431,11 @@
       <c r="AF5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH5" s="13" t="s">
-        <v>13</v>
+      <c r="AG5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="AI5" s="8" t="s">
         <v>14</v>
@@ -1443,7 +1443,7 @@
       <c r="AJ5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="36"/>
+      <c r="AK5" s="32"/>
       <c r="AL5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1509,12 +1509,12 @@
       <c r="Y6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="Z6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
     </row>
     <row r="7" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -1630,6 +1630,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AX1:BB1"/>
     <mergeCell ref="N3:P5"/>
     <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="D1:F1"/>
@@ -1640,12 +1646,6 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AX1:BB1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11590A4-9006-414D-835C-C2D2AA56C866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513D3059-37E5-48DB-B0F0-0F471E373F8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Py" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="34">
   <si>
     <t>ноябрь</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Dj</t>
-  </si>
-  <si>
-    <t>Diplom</t>
   </si>
   <si>
     <t>HTML/CSS</t>
@@ -125,6 +122,18 @@
     <t>09.12.2023
 Нурдаулет / Мейрам /
 Бекет</t>
+  </si>
+  <si>
+    <t>Тестовый
+экзамен</t>
+  </si>
+  <si>
+    <t>Дипломный 
+проект</t>
+  </si>
+  <si>
+    <t>Экзамен
+(!домашки!)</t>
   </si>
 </sst>
 </file>
@@ -176,7 +185,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,12 +224,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA4C2F4"/>
         <bgColor rgb="FFA4C2F4"/>
       </patternFill>
@@ -255,6 +258,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -452,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -464,32 +479,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,13 +528,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,132 +772,130 @@
   </sheetPr>
   <dimension ref="A1:BF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="1"/>
-    <col min="3" max="3" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="24" width="4.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.21875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="16.21875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="18" style="1" customWidth="1"/>
-    <col min="29" max="29" width="15.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="14.88671875" style="1" customWidth="1"/>
-    <col min="31" max="34" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="54" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="29.44140625" style="1"/>
+    <col min="1" max="2" width="29.453125" style="1"/>
+    <col min="3" max="3" width="13.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="24" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="4.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="3.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="3.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="3.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="3.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="3.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="3.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="3.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="29.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="D1" s="33" t="s">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="33" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="33" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="33" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="33" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="33" t="s">
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="33" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="33" t="s">
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="33" t="s">
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="33" t="s">
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="33" t="s">
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="35"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="23"/>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4">
         <v>15</v>
@@ -1029,7 +1063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="D3" s="7" t="s">
@@ -1062,11 +1096,11 @@
       <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1094,25 +1128,25 @@
       <c r="Y3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC3" s="13" t="s">
+      <c r="Z3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AD3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AE3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AF3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="AG3" s="8" t="s">
@@ -1127,7 +1161,7 @@
       <c r="AJ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="30" t="s">
+      <c r="AK3" s="33" t="s">
         <v>12</v>
       </c>
       <c r="AL3" s="8" t="s">
@@ -1175,104 +1209,104 @@
       <c r="AZ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="BA3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="BC3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="BD3" s="9" t="s">
-        <v>15</v>
+      <c r="BA3" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB3" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC3" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD3" s="40" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="T4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="U4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="V4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="W4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC4" s="13" t="s">
+      <c r="Z4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AD4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="13" t="s">
+      <c r="AE4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AF4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="AG4" s="8" t="s">
@@ -1287,7 +1321,7 @@
       <c r="AJ4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="31"/>
+      <c r="AK4" s="34"/>
       <c r="AL4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1330,26 +1364,26 @@
       <c r="AY4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AZ4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="BC4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="BD4" s="9" t="s">
-        <v>15</v>
+      <c r="AZ4" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA4" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB4" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC4" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD4" s="40" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1369,7 +1403,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
@@ -1380,9 +1414,9 @@
       <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="32"/>
       <c r="Q5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1407,28 +1441,28 @@
       <c r="X5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC5" s="13" t="s">
+      <c r="Y5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="13" t="s">
+      <c r="AD5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AE5" s="13" t="s">
+      <c r="AE5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AF5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="AG5" s="8" t="s">
@@ -1443,7 +1477,7 @@
       <c r="AJ5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="32"/>
+      <c r="AK5" s="35"/>
       <c r="AL5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1486,156 +1520,184 @@
       <c r="AY5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AZ5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="BC5" s="9" t="s">
-        <v>15</v>
+      <c r="AZ5" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA5" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB5" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC5" s="40" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Y6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AT6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY6" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="10"/>
-      <c r="Y7" s="17" t="s">
+      <c r="C7" s="9"/>
+      <c r="Y7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Z7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA7" s="20" t="s">
+      <c r="AA7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="36"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY7" s="38"/>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="38"/>
+      <c r="BB7" s="38"/>
+      <c r="BC7" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD7" s="37"/>
+      <c r="BE7" s="37"/>
+      <c r="BF7" s="37"/>
+    </row>
+    <row r="8" spans="1:58" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AB7" s="18" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="8" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="20" t="s">
-        <v>30</v>
-      </c>
+    <row r="12" spans="1:58" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="13"/>
     </row>
-    <row r="12" spans="1:58" ht="18" x14ac:dyDescent="0.35">
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="14"/>
-      <c r="AS12" s="14"/>
-      <c r="AT12" s="14"/>
-      <c r="AU12" s="14"/>
-      <c r="AV12" s="14"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="14"/>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="14"/>
-      <c r="BD12" s="14"/>
-      <c r="BE12" s="14"/>
-      <c r="BF12" s="14"/>
-    </row>
-    <row r="48" spans="1:58" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="14"/>
-      <c r="AA48" s="14"/>
-      <c r="AB48" s="14"/>
-      <c r="AC48" s="14"/>
-      <c r="AD48" s="14"/>
-      <c r="AE48" s="14"/>
-      <c r="AF48" s="14"/>
-      <c r="AG48" s="14"/>
-      <c r="AH48" s="14"/>
-      <c r="AI48" s="14"/>
-      <c r="AJ48" s="14"/>
-      <c r="AK48" s="14"/>
-      <c r="AL48" s="14"/>
-      <c r="AM48" s="14"/>
-      <c r="AN48" s="14"/>
-      <c r="AO48" s="14"/>
-      <c r="AP48" s="14"/>
-      <c r="AQ48" s="14"/>
-      <c r="AR48" s="14"/>
-      <c r="AS48" s="14"/>
-      <c r="AT48" s="14"/>
-      <c r="AU48" s="14"/>
-      <c r="AV48" s="14"/>
-      <c r="AW48" s="14"/>
-      <c r="AX48" s="14"/>
-      <c r="AY48" s="14"/>
-      <c r="AZ48" s="14"/>
-      <c r="BA48" s="14"/>
-      <c r="BB48" s="14"/>
-      <c r="BC48" s="14"/>
-      <c r="BD48" s="14"/>
-      <c r="BE48" s="14"/>
-      <c r="BF48" s="14"/>
+    <row r="48" spans="1:58" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="13"/>
+      <c r="AJ48" s="13"/>
+      <c r="AK48" s="13"/>
+      <c r="AL48" s="13"/>
+      <c r="AM48" s="13"/>
+      <c r="AN48" s="13"/>
+      <c r="AO48" s="13"/>
+      <c r="AP48" s="13"/>
+      <c r="AQ48" s="13"/>
+      <c r="AR48" s="13"/>
+      <c r="AS48" s="13"/>
+      <c r="AT48" s="13"/>
+      <c r="AU48" s="13"/>
+      <c r="AV48" s="13"/>
+      <c r="AW48" s="13"/>
+      <c r="AX48" s="13"/>
+      <c r="AY48" s="13"/>
+      <c r="AZ48" s="13"/>
+      <c r="BA48" s="13"/>
+      <c r="BB48" s="13"/>
+      <c r="BC48" s="13"/>
+      <c r="BD48" s="13"/>
+      <c r="BE48" s="13"/>
+      <c r="BF48" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AX1:BB1"/>
+  <mergeCells count="19">
+    <mergeCell ref="AX7:BB7"/>
+    <mergeCell ref="AT7:AW7"/>
+    <mergeCell ref="BC7:BF7"/>
     <mergeCell ref="N3:P5"/>
     <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="D1:F1"/>
@@ -1646,6 +1708,12 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AX1:BB1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C0EC48-F6DA-4B19-8942-FEB84216F05B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A27CDCF-C16B-4C24-BF86-3C51A771F7F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Py" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
-  <si>
-    <t>март</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>апрель</t>
   </si>
@@ -135,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -230,23 +227,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -273,19 +320,42 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -508,250 +578,177 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="7.140625" style="1"/>
+    <col min="1" max="16384" width="7.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="6" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="25"/>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
+      <c r="C3" s="7">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="4" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="25"/>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26"/>
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12">
+        <v>17</v>
+      </c>
+      <c r="H5" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7">
-        <v>11</v>
-      </c>
-      <c r="C2" s="7">
-        <v>18</v>
-      </c>
-      <c r="D2" s="7">
-        <v>25</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
-        <v>8</v>
-      </c>
-      <c r="G2" s="7">
-        <v>15</v>
-      </c>
-      <c r="H2" s="7">
-        <v>22</v>
-      </c>
-      <c r="I2" s="7">
-        <v>29</v>
-      </c>
-      <c r="J2" s="7">
-        <v>6</v>
-      </c>
-      <c r="K2" s="7">
-        <v>13</v>
-      </c>
-      <c r="L2" s="7">
-        <v>20</v>
-      </c>
-      <c r="M2" s="7">
-        <v>27</v>
-      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
     </row>
-    <row r="3" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="10">
-        <v>15</v>
-      </c>
-      <c r="H3" s="10">
-        <v>22</v>
-      </c>
-      <c r="I3" s="8">
-        <v>29</v>
-      </c>
-      <c r="J3" s="8">
-        <v>6</v>
-      </c>
-      <c r="K3" s="9">
-        <v>13</v>
-      </c>
-      <c r="L3" s="5">
-        <v>20</v>
-      </c>
+    <row r="10" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="10">
-        <v>17</v>
-      </c>
-      <c r="H4" s="11">
-        <v>24</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8">
-        <v>8</v>
-      </c>
-      <c r="K4" s="9">
-        <v>15</v>
-      </c>
-      <c r="L4" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="12">
-        <v>19</v>
-      </c>
-      <c r="H5" s="13">
-        <v>26</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="13">
-        <v>10</v>
-      </c>
-      <c r="K5" s="15">
-        <v>17</v>
-      </c>
-      <c r="L5" s="15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="11" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="47" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
+    <row r="46" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="J6:M6"/>
+  <mergeCells count="5">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A27CDCF-C16B-4C24-BF86-3C51A771F7F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9023C41-91C4-4777-AC88-24D262C667E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>апрель</t>
   </si>
   <si>
     <t>май</t>
-  </si>
-  <si>
-    <t>Dj</t>
   </si>
   <si>
     <t>Тестовый
@@ -320,6 +317,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,12 +354,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +578,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -590,19 +587,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="13" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
@@ -634,10 +631,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="25"/>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="13"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="7">
         <v>15</v>
       </c>
@@ -658,10 +653,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="13"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="7">
         <v>17</v>
       </c>
@@ -682,10 +675,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="9">
         <v>19</v>
       </c>
@@ -704,21 +695,21 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="10" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9023C41-91C4-4777-AC88-24D262C667E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8F1EF8-98F8-4702-9937-4B35CBA45430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -354,6 +354,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,8 +580,8 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -634,9 +637,9 @@
       <c r="A3" s="13"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8">
         <v>22</v>
       </c>
       <c r="E3" s="5">
@@ -656,9 +659,9 @@
       <c r="A4" s="13"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10">
         <v>24</v>
       </c>
       <c r="E4" s="5">
@@ -684,15 +687,16 @@
         <v>26</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="10">
+      <c r="F5" s="12">
         <v>10</v>
       </c>
       <c r="G5" s="12">
         <v>17</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="7">
         <v>24</v>
       </c>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8F1EF8-98F8-4702-9937-4B35CBA45430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B55D0D-F2D7-4529-BABE-1B481DB9123B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -354,9 +354,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +578,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -604,7 +601,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -635,10 +632,8 @@
     </row>
     <row r="3" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7">
-        <v>17</v>
-      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="8">
         <v>22</v>
       </c>
@@ -651,35 +646,33 @@
       <c r="G3" s="6">
         <v>13</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7">
-        <v>18</v>
-      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="10">
         <v>24</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>8</v>
       </c>
       <c r="G4" s="6">
         <v>15</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="9">
         <v>19</v>
       </c>
@@ -696,7 +689,7 @@
       <c r="H5" s="7">
         <v>24</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B55D0D-F2D7-4529-BABE-1B481DB9123B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A48D29-9365-44EA-83CB-B289243EF2FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -303,9 +303,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,7 +575,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -587,19 +584,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
@@ -631,9 +628,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="8">
         <v>22</v>
       </c>
@@ -651,10 +648,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="10">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="9">
         <v>24</v>
       </c>
       <c r="E4" s="5">
@@ -671,42 +668,40 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="9">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="9">
         <v>26</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12">
+      <c r="E5" s="10"/>
+      <c r="F5" s="11">
         <v>10</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>17</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="24" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="21" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
